--- a/_excel/#CardPile.xlsx
+++ b/_excel/#CardPile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workplace\GodotLearning\CardGame\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\Project\GodotTemplate\_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EFCB86F-D404-4145-8C0D-EEEF01370B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EAF817-8D6B-4D8C-9443-293AB5CB4A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="card_pile" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>array,int#ref=Card.TbCard</t>
+    <t>array,int#ref=TbCard</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -553,15 +553,15 @@
       <selection activeCell="D3" sqref="D3:S3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4" style="10" customWidth="1"/>
-    <col min="2" max="3" width="8.6640625" style="10"/>
-    <col min="4" max="4" width="8.4140625" style="10" customWidth="1"/>
-    <col min="5" max="16384" width="8.6640625" style="10"/>
+    <col min="2" max="3" width="8.640625" style="10"/>
+    <col min="4" max="4" width="8.42578125" style="10" customWidth="1"/>
+    <col min="5" max="16384" width="8.640625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -591,7 +591,7 @@
       <c r="S1" s="11"/>
       <c r="T1" s="4"/>
     </row>
-    <row r="2" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -621,7 +621,7 @@
       <c r="S2" s="11"/>
       <c r="T2" s="4"/>
     </row>
-    <row r="3" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -647,7 +647,7 @@
       <c r="S3" s="14"/>
       <c r="T3" s="7"/>
     </row>
-    <row r="4" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -707,7 +707,7 @@
       </c>
       <c r="T4" s="7"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B5" s="10">
         <v>10001</v>
       </c>
@@ -763,7 +763,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B6" s="10">
         <v>10002</v>
       </c>
